--- a/biology/Zoologie/L'Incroyable_Histoire_de_Winter_le_dauphin_2/L'Incroyable_Histoire_de_Winter_le_dauphin_2.xlsx
+++ b/biology/Zoologie/L'Incroyable_Histoire_de_Winter_le_dauphin_2/L'Incroyable_Histoire_de_Winter_le_dauphin_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Histoire_de_Winter_le_dauphin_2</t>
+          <t>L'Incroyable_Histoire_de_Winter_le_dauphin_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Incroyable Histoire de Winter le dauphin 2 ou Histoire de dauphin 2 au Québec (Dolphin Tale 2), est un film d'aventure américain sorti en 2014, réalisé par Charles Martin Smith.
 Le film est inspiré par l’histoire vraie d’un dauphin nommé Winter qui a été sauvé au large des côtes de Floride et pris en charge par l’association Clearwater Marine Aquarium.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Histoire_de_Winter_le_dauphin_2</t>
+          <t>L'Incroyable_Histoire_de_Winter_le_dauphin_2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'hôpital Clearwater en Floride, Winter coule des jours heureux depuis qu'elle a sa prothèse de queue. Sa notoriété a fait grimper la fréquentation de l'établissement qui s'est agrandi et prévoit d'avoir prochainement ses propres scanners et salles d'opération. Sawyer Nelson (le jeune héros du premier volet) et Hazel Haskett (la fille du vétérinaire et directeur de l'hôpital Clay Haskett) y travaillent (malgré leur jeune âge) en tant que bénévoles avec d'autres adultes.
 Mais un jour, alors que Winter a bien grandi, elle refuse de porter sa prothèse en permanence car elle n'est plus adaptée à sa morphologie. Et comme si ça ne suffisait pas, Panama, sa mère de substitution et son seul compagnon, meurt de vieillesse. Winter se retrouvant seul, sa vie au Clearwater se retrouve en sursis car la législation interdit de garder un dauphin sans compagnon. En effet, Winter devient agressif et frappe Sawyer. Et si rien n'est fait, la femelle sera transférée dans un parc marin.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Histoire_de_Winter_le_dauphin_2</t>
+          <t>L'Incroyable_Histoire_de_Winter_le_dauphin_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : L'Incroyable Histoire de Winter le dauphin 2
 Titre original : Dolphin Tale 2
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Histoire_de_Winter_le_dauphin_2</t>
+          <t>L'Incroyable_Histoire_de_Winter_le_dauphin_2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Morgan Freeman (VF : Benoît Allemane ; VQ : Guy Nadon) : Dr Cameron McCarthy
 Ashley Judd (VF : Juliette Degenne ; VQ : Natalie Hamel-Roy) : Lorraine Nelson
@@ -616,7 +634,7 @@
 Charles Martin Smith (VF : Vincent Violette) : George Hughes
 Julia Winter : Peyton
 Bethany Hamilton : elle-même
-Source et légende : Version française (VF) sur AlloDoublage[1] Version québécoise (VQ) sur Doublage Québec[2]</t>
+Source et légende : Version française (VF) sur AlloDoublage Version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -626,7 +644,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Histoire_de_Winter_le_dauphin_2</t>
+          <t>L'Incroyable_Histoire_de_Winter_le_dauphin_2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,9 +662,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, le film reçoit un mauvais accueil de la critique presse (1,4/5 sur Allociné) mais un accueil plutôt bon des spectateurs avec un score de 3,3/5[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le film reçoit un mauvais accueil de la critique presse (1,4/5 sur Allociné) mais un accueil plutôt bon des spectateurs avec un score de 3,3/5.
 </t>
         </is>
       </c>
